--- a/user_credentials.xlsx
+++ b/user_credentials.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,54 +444,28 @@
           <t>password</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>timestamp</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>shoukhin</t>
+          <t>alamin</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1803078Boss@#$%&amp;</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2025-01-29 21:41:09</t>
-        </is>
+      <c r="B2" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>alamin</t>
+          <t>shoukhin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>1803078Boss@#$%&amp;</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>tasnia</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
